--- a/medicine/Bioéthique/Pro-Life_Alliance_of_Gays_and_Lesbians/Pro-Life_Alliance_of_Gays_and_Lesbians.xlsx
+++ b/medicine/Bioéthique/Pro-Life_Alliance_of_Gays_and_Lesbians/Pro-Life_Alliance_of_Gays_and_Lesbians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pro-Life Alliance of Gays and Lesbians (Alliance pro-vie des gays et lesbiennes, PLAGAL) est une association américaine soutenant la position pro-vie selon laquelle la vie humaine commence à la conception et rejetant l'avortement, privilégiant l'ouverture à d'autres possibilités. L'association fait également part de son inquiétude que l'hypothèse d'une origine génétique de l'homosexualité pourrait ouvrir la possibilité d'avortements sélectifs.
 PLAGAL est présidée par Cecilia Brown, membre du Parti vert des États-Unis.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">PLAGAL a été fondée par Tom Sena en 1990 à Minneapolis, dans le Minnesota, et à Washington D.C. sous le nom de Gays Against Abortion. Son premier président, élu en 1994, était Philip Arcidi. En 1991, l'association a été rebaptisée pour prendre son nom actuel.
-En mars 2005, PLAGAL a apporté son soutien à une proposition de loi introduite dans l'État du Maine, qui aurait interdit l'utilisation de la découverte éventuelle chez un enfant-à-naître d'un gène causant l'homosexualité pour avorter.[1]
+En mars 2005, PLAGAL a apporté son soutien à une proposition de loi introduite dans l'État du Maine, qui aurait interdit l'utilisation de la découverte éventuelle chez un enfant-à-naître d'un gène causant l'homosexualité pour avorter.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Réaction à l'organisation dans les milieux LGBT</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">PLAGAL a été critiqué par les pro-choix LGBT, qui l'accusent de se trouver aux côtés de la droite religieuse américaine, hostile au mouvement LGBT, en défendant une position pro-vie. De grandes organisations LGBT comme GLAAD ou HRC affichent des positions pro-choix.
-En 1995, PLAGAL s'est vu refuser de défiler dans le défilé de la gay pride à Boston, et son stand s'est fait prendre à partie par des opposants.[2]
+En 1995, PLAGAL s'est vu refuser de défiler dans le défilé de la gay pride à Boston, et son stand s'est fait prendre à partie par des opposants.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Réactions à l'organisation dans les milieux pro-vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PLAGAL est soutenu par une partie de la communauté pro-vie [3] et est officiellement acceptée dans la Marche pour la vie de Washington, D.C., bien que cela ne fut pas toujours le cas dans le passé.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PLAGAL est soutenu par une partie de la communauté pro-vie  et est officiellement acceptée dans la Marche pour la vie de Washington, D.C., bien que cela ne fut pas toujours le cas dans le passé.
 </t>
         </is>
       </c>
